--- a/DigitalLearningSolutions.Data.Tests/TestData/CourseDelegateExportCurrentDataDownloadTest.xlsx
+++ b/DigitalLearningSolutions.Data.Tests/TestData/CourseDelegateExportCurrentDataDownloadTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alejac\Git\DLSV2\DigitalLearningSolutions.Data.Tests\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80448C6F-DB24-49A9-95A2-A732500A4433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853EA64F-D1DA-4242-829C-14C8AB00EE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23136" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Last name</t>
   </si>
@@ -106,21 +106,6 @@
     <t>TM68</t>
   </si>
   <si>
-    <t>24/05/2012 00:00:00</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>Bennett</t>
   </si>
   <si>
@@ -139,18 +124,6 @@
     <t>ES1</t>
   </si>
   <si>
-    <t>22/09/2010 00:00:00</t>
-  </si>
-  <si>
-    <t>08/03/2018 00:00:00</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>Griffin</t>
   </si>
   <si>
@@ -164,15 +137,15 @@
   </si>
   <si>
     <t>NB8</t>
-  </si>
-  <si>
-    <t>22/03/2011 00:00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -209,10 +182,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -549,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,132 +641,136 @@
       <c r="I2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" t="s">
-        <v>32</v>
+      <c r="J2" s="5">
+        <v>41053</v>
+      </c>
+      <c r="K2" s="4">
+        <v>43167</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="4"/>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U2" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" t="s">
-        <v>42</v>
-      </c>
-      <c r="S3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" t="s">
-        <v>32</v>
+      <c r="J3" s="5">
+        <v>40443</v>
+      </c>
+      <c r="K3" s="5">
+        <v>43167</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="4">
+        <v>43167</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>100</v>
+      </c>
+      <c r="S3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" t="s">
-        <v>42</v>
-      </c>
-      <c r="S4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U4" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="J4" s="5">
+        <v>40624</v>
+      </c>
+      <c r="K4" s="5">
+        <v>43167</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="4">
+        <v>43167</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>100</v>
+      </c>
+      <c r="S4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">

--- a/DigitalLearningSolutions.Data.Tests/TestData/CourseDelegateExportCurrentDataDownloadTest.xlsx
+++ b/DigitalLearningSolutions.Data.Tests/TestData/CourseDelegateExportCurrentDataDownloadTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alejac\Git\DLSV2\DigitalLearningSolutions.Data.Tests\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\digitallearningsolutions\DigitalLearningSolutions.Data.Tests\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853EA64F-D1DA-4242-829C-14C8AB00EE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95647BF-FB0D-40D7-9E01-D5392125C177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23136" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="2835" windowWidth="28996" windowHeight="15795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Course 1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Last name</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>NB8</t>
+  </si>
+  <si>
+    <t>Course name</t>
+  </si>
+  <si>
+    <t>Course One - v1</t>
   </si>
 </sst>
 </file>
@@ -144,9 +150,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -157,6 +163,11 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -187,7 +198,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -208,9 +219,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:V9" totalsRowShown="0">
-  <autoFilter ref="A1:V9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:W9" totalsRowShown="0">
+  <autoFilter ref="A1:W9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="23">
+    <tableColumn id="23" xr3:uid="{BD95C568-73DF-44ED-A90A-C62FD1C879B6}" name="Course name"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Last name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="First name"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Email"/>
@@ -523,138 +535,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="47.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="11" width="19.85546875" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" customWidth="1"/>
-    <col min="20" max="20" width="16.85546875" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" customWidth="1"/>
-    <col min="22" max="22" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="47.81640625" customWidth="1"/>
+    <col min="7" max="7" width="18.26953125" customWidth="1"/>
+    <col min="8" max="8" width="28.26953125" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" customWidth="1"/>
+    <col min="10" max="10" width="27.54296875" customWidth="1"/>
+    <col min="11" max="11" width="14.453125" customWidth="1"/>
+    <col min="12" max="13" width="19.81640625" customWidth="1"/>
+    <col min="14" max="14" width="15.26953125" customWidth="1"/>
+    <col min="15" max="15" width="19.81640625" customWidth="1"/>
+    <col min="16" max="16" width="9.81640625" customWidth="1"/>
+    <col min="17" max="17" width="17.453125" customWidth="1"/>
+    <col min="18" max="18" width="18.453125" customWidth="1"/>
+    <col min="19" max="19" width="21.7265625" customWidth="1"/>
+    <col min="20" max="20" width="12.26953125" customWidth="1"/>
+    <col min="21" max="21" width="9.81640625" customWidth="1"/>
+    <col min="22" max="22" width="16.81640625" customWidth="1"/>
+    <col min="23" max="23" width="10.54296875" customWidth="1"/>
+    <col min="24" max="24" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="5">
+      <c r="K2" s="5">
         <v>41053</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>43167</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="4"/>
-      <c r="N2">
+      <c r="M2" s="5"/>
+      <c r="N2" s="4"/>
+      <c r="O2">
         <v>2</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
       <c r="P2">
         <v>0</v>
       </c>
@@ -664,122 +680,132 @@
       <c r="R2">
         <v>0</v>
       </c>
-      <c r="S2" s="3" t="b">
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U2" s="3" t="b">
+      <c r="V2" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="5">
+      <c r="K3" s="5">
         <v>40443</v>
       </c>
-      <c r="K3" s="5">
+      <c r="L3" s="5">
         <v>43167</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="4">
+      <c r="M3" s="5"/>
+      <c r="N3" s="4">
         <v>43167</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>2</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>1</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>100</v>
       </c>
-      <c r="S3" s="3" t="b">
+      <c r="T3" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U3" s="3" t="b">
+      <c r="V3" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="5">
         <v>40624</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L4" s="5">
         <v>43167</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="4">
+      <c r="M4" s="5"/>
+      <c r="N4" s="4">
         <v>43167</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>1</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>100</v>
       </c>
-      <c r="S4" s="3" t="b">
+      <c r="T4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U4" s="3" t="b">
+      <c r="V4" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E9" s="1"/>
-      <c r="H9" s="1"/>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="F9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{AB802750-0A6C-434A-A6BC-A2CF0D20A34B}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{AB802750-0A6C-434A-A6BC-A2CF0D20A34B}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
